--- a/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,34</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,44</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,01</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,87</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,66</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-2,31; 3,06</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-0,07; 7,52</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>1,73; 9,86</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 4,46</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,54; 5,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 5,07</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>13,54%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>129,46%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>195,26%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>72,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>107,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,37%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-62,53; 286,32</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-11,31; 522,88</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>25,53; 611,84</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-33,34; 325,19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,36; 288,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,73; 282,75</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,76</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,3</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,68</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,51</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,73; 4,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,52; 0,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,25; 1,62</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,44; 4,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,28; -0,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,61; 1,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,27; 4,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,19; -0,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,11; 0,97</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,01%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-35,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,93%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>61,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-56,28%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,7%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>56,92%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,63%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,22%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,59; 197,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,32; 50,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,52; 71,96</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,98; 209,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,13; -1,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,92; 71,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,23; 155,52</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,64; -3,14</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,82; 34,48</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,18</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,22</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,32</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,77</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,5</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,73</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,04</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,33; 5,44</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,51; 2,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,0; 12,84</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,57; 3,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,5; 0,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,96; 16,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,52; 3,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,21; 1,03</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,8; 13,53</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>141,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>600,72%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-48,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>339,84%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,59%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-27,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>418,88%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-40,64; 799,79</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>211,89; 2017,82</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-54,83; 134,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-84,4; 53,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>156,64; 755,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,89; 173,94</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,79; 63,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>231,9; 753,31</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,99</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,5</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,34</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,51</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,55</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,02</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 4,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,08; 5,34</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,5; 7,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,12; 5,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 7,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,45; 8,69</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 4,22</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,76; 5,53</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,71; 7,17</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,39%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,58%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>214,64%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>126,8%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,48%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>160,94%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,36; 365,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,52; 471,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,85; 740,55</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 209,46</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 255,26</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,49; 323,05</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,09; 189,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,37; 240,12</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>63,21; 311,49</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,15</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,57</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,04</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,74</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,82</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,58</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,49</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,45; 10,45</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,02; 2,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,46; 15,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 7,58</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,59; 2,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,24; 20,93</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,52; 7,81</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,14; 1,34</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,66; 17,71</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>332,03%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-22,45%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>625,01%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>76,22%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-18,65%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>421,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>156,01%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,64%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>493,98%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>39,71; 1586,76</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 401,33</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>167,89; 2624,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,12; 379,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,59; 126,42</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>158,19; 1037,74</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,71; 418,62</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,02; 77,47</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>243,33; 1011,45</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,35</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,36</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,64</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,97</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 7,33</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,16; 3,93</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,99; 16,38</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,64; 3,13</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,22; 1,26</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,67; 16,01</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,64; 3,87</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,24; 1,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,24; 14,63</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>181,76%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,46%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>669,66%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-8,49%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-43,77%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>274,21%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>48,1%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-9,62%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>391,19%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,86; 959,63</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,79; 575,47</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>207,03; 1927,5</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,89; 146,35</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,12; 67,09</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>110,83; 620,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,52; 205,24</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,4; 93,25</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>204,03; 742,41</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,41</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,85</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,91</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,67; 2,6</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,33; 2,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,55; 5,09</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,72; 3,02</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,04; 2,58</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,71; 5,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,13; 2,18</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,01; 2,06</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,89; 4,75</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,96%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,35%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,78%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,17%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,89%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>74,68%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,97; 117,33</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,5; 133,63</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,73; 235,44</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,72; 84,45</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,27; 70,79</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,0; 150,99</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,38; 70,91</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,31; 67,11</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>20,3; 147,12</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,77</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,37</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,59</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,33; 1,3</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,06; 1,49</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,18; 2,27</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,01; 3,51</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 2,82</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,77; 2,13</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,51; 2,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,89; 1,69</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,57; 1,71</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,35%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,42%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,26%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,77%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>47,65%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,27%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,89%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,11%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,7%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,2; 58,39</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,68; 74,16</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,57; 101,91</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,37; 228,42</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,48; 184,07</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,41; 139,65</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,11; 98,16</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,66; 86,79</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,46; 84,26</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,3</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,77</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,46</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,23</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,56; 2,32</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,56; 1,09</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,82; 4,79</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,73; 2,76</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 1,36</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,48; 5,54</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,93; 2,31</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,25; 0,99</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,44; 4,89</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,32%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,18%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>142,67%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,09%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,81%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>127,99%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,75%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,24%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,31%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,95; 101,56</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,65; 47,66</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>89,22; 210,69</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,06; 87,5</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,82; 42,96</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>87,35; 178,31</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,45; 81,36</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,89; 34,46</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>102,48; 175,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,73</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>3,7</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,78</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>1,81</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3,75</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,66</t>
+          <t>2,79</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,06; 7,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,07; 7,52</t>
+          <t>0,19; 10,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,53; 7,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 4,46</t>
+          <t>-1,38; 4,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 6,47</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,45; 5,07</t>
+          <t>0,53; 5,98</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>144,63%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>129,46%</t>
+          <t>143,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>135,5%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>72,01%</t>
+          <t>64,93%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>140,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>99,37%</t>
+          <t>103,95%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,85; 497,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-11,31; 522,88</t>
+          <t>-13,57; 616,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,11; 510,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-33,34; 325,19</t>
+          <t>-35,8; 304,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>27,0; 361,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,73; 282,75</t>
+          <t>5,59; 305,94</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>-0,88</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,64</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,25; 1,62</t>
+          <t>-3,34; 1,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 1,72</t>
+          <t>-2,67; 1,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 0,97</t>
+          <t>-2,22; 0,83</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-21,93%</t>
+          <t>-25,33%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>-10,47%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,22%</t>
+          <t>-17,67%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 71,96</t>
+          <t>-68,29; 65,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-49,92; 71,56</t>
+          <t>-51,76; 64,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-46,82; 34,48</t>
+          <t>-49,09; 30,31</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9,22</t>
+          <t>9,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>12,5</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>11,04</t>
+          <t>10,79</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6,0; 12,84</t>
+          <t>5,85; 12,61</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,96; 16,39</t>
+          <t>8,83; 16,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,8; 13,53</t>
+          <t>8,59; 13,25</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>600,72%</t>
+          <t>587,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>339,84%</t>
+          <t>335,65%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>418,88%</t>
+          <t>409,64%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>211,89; 2017,82</t>
+          <t>204,27; 1975,47</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>156,64; 755,46</t>
+          <t>153,83; 745,14</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>231,9; 753,31</t>
+          <t>224,93; 736,76</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>1,99</t>
+          <t>0,21</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,34</t>
+          <t>4,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>3,14</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2,55</t>
+          <t>2,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>4,12</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 4,08</t>
+          <t>-2,12; 2,55</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,5; 7,29</t>
+          <t>1,38; 7,21</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,12; 5,78</t>
+          <t>0,35; 7,1</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,45; 8,69</t>
+          <t>-0,33; 6,95</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,66; 4,22</t>
+          <t>0,02; 4,23</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,71; 7,17</t>
+          <t>1,58; 6,26</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>98,39%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>214,64%</t>
+          <t>205,92%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>74,69%</t>
+          <t>88,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>126,8%</t>
+          <t>88,92%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>81,48%</t>
+          <t>63,64%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>160,94%</t>
+          <t>131,33%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-17,36; 365,11</t>
+          <t>-69,46; 280,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>26,85; 740,55</t>
+          <t>25,73; 742,1</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,31; 209,46</t>
+          <t>3,15; 233,29</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>39,49; 323,05</t>
+          <t>-3,32; 243,29</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>14,09; 189,48</t>
+          <t>-2,32; 187,25</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63,21; 311,49</t>
+          <t>37,1; 273,46</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>11,57</t>
+          <t>11,58</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>16,82</t>
+          <t>17,05</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>14,49</t>
+          <t>14,6</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,46; 15,8</t>
+          <t>7,5; 15,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,24; 20,93</t>
+          <t>12,41; 21,14</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,66; 17,71</t>
+          <t>11,71; 17,76</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>625,01%</t>
+          <t>625,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>421,4%</t>
+          <t>427,26%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>493,98%</t>
+          <t>497,76%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>167,89; 2624,9</t>
+          <t>168,44; 2620,86</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>158,19; 1037,74</t>
+          <t>159,26; 1047,82</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>243,33; 1011,45</t>
+          <t>245,55; 1014,37</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>12,34</t>
+          <t>12,08</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>11,64</t>
+          <t>11,65</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>11,97</t>
+          <t>11,82</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,99; 16,38</t>
+          <t>8,8; 16,08</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,67; 16,01</t>
+          <t>7,65; 15,99</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,24; 14,63</t>
+          <t>9,07; 14,47</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>669,66%</t>
+          <t>655,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>274,21%</t>
+          <t>274,42%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>391,19%</t>
+          <t>386,41%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>207,03; 1927,5</t>
+          <t>201,49; 1896,16</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>110,83; 620,42</t>
+          <t>111,01; 617,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>204,03; 742,41</t>
+          <t>200,2; 733,04</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>2,61</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,91</t>
+          <t>2,29</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,55; 5,09</t>
+          <t>0,33; 4,79</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 5,35</t>
+          <t>-2,44; 4,94</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>0,89; 4,75</t>
+          <t>-0,29; 4,14</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>83,27%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>60,89%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>74,68%</t>
+          <t>58,61%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>8,73; 235,44</t>
+          <t>4,47; 224,45</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 150,99</t>
+          <t>-35,92; 126,58</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>20,3; 147,12</t>
+          <t>-4,1; 128,27</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>-0,3</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,77</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,25</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 2,27</t>
+          <t>-2,43; 1,5</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 2,13</t>
+          <t>-0,7; 2,21</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 1,71</t>
+          <t>-1,25; 1,4</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>13,26%</t>
+          <t>-10,02%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>34,27%</t>
+          <t>37,23%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>22,7%</t>
+          <t>9,68%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-32,57; 101,91</t>
+          <t>-62,74; 59,37</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-26,41; 139,65</t>
+          <t>-24,78; 143,4</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-17,46; 84,26</t>
+          <t>-38,34; 66,85</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3,77</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,6</t>
+          <t>4,24</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>3,82</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,82; 4,79</t>
+          <t>1,79; 4,37</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,54</t>
+          <t>2,73; 5,27</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>3,44; 4,89</t>
+          <t>2,77; 4,61</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>142,67%</t>
+          <t>127,61%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>127,99%</t>
+          <t>117,89%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>135,31%</t>
+          <t>122,29%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>89,22; 210,69</t>
+          <t>62,3; 189,57</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>87,35; 178,31</t>
+          <t>72,56; 170,0</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>102,48; 175,2</t>
+          <t>83,61; 160,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,06; 7,56</t>
+          <t>0,28; 7,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,31; 3,06</t>
+          <t>-2,39; 3,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,19; 10,09</t>
+          <t>0,33; 9,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 7,96</t>
+          <t>0,24; 7,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,73; 9,86</t>
+          <t>1,48; 9,1</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 4,24</t>
+          <t>-1,13; 4,57</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,2; 6,47</t>
+          <t>1,33; 6,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,54; 5,47</t>
+          <t>0,42; 5,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 5,98</t>
+          <t>0,62; 6,27</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-10,85; 497,76</t>
+          <t>-2,29; 664,17</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,53; 286,32</t>
+          <t>-61,94; 269,77</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,57; 616,29</t>
+          <t>-6,83; 684,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-8,11; 510,88</t>
+          <t>-16,67; 531,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>25,53; 611,84</t>
+          <t>10,48; 630,13</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-35,8; 304,62</t>
+          <t>-26,38; 333,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,0; 361,93</t>
+          <t>32,46; 341,08</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,36; 288,74</t>
+          <t>7,7; 266,82</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,59; 305,94</t>
+          <t>9,0; 335,17</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 4,53</t>
+          <t>-0,7; 4,6</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,52; 0,88</t>
+          <t>-3,4; 0,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 1,43</t>
+          <t>-3,36; 1,46</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,44; 4,88</t>
+          <t>-0,18; 5,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,28; -0,25</t>
+          <t>-4,17; -0,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 1,58</t>
+          <t>-2,57; 1,58</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,27; 4,1</t>
+          <t>0,32; 3,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,19; -0,23</t>
+          <t>-3,25; -0,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 0,83</t>
+          <t>-2,15; 0,86</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 197,17</t>
+          <t>-20,83; 190,55</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-73,32; 50,02</t>
+          <t>-71,23; 50,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,29; 65,28</t>
+          <t>-69,92; 71,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 209,62</t>
+          <t>-7,27; 204,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-83,13; -1,39</t>
+          <t>-82,04; 2,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-51,76; 64,63</t>
+          <t>-51,62; 64,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>5,23; 155,52</t>
+          <t>7,1; 137,63</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-70,64; -3,14</t>
+          <t>-71,8; -8,8</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-49,09; 30,31</t>
+          <t>-49,84; 33,39</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,17 +1117,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 5,44</t>
+          <t>-0,53; 5,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,33</t>
+          <t>-1,71; 2,44</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5,85; 12,61</t>
+          <t>5,83; 12,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1137,27 +1137,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 0,63</t>
+          <t>-4,48; 0,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,83; 16,24</t>
+          <t>8,55; 15,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,31</t>
+          <t>-0,67; 3,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,21; 1,03</t>
+          <t>-2,39; 0,88</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>8,59; 13,25</t>
+          <t>8,56; 13,32</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-40,64; 799,79</t>
+          <t>-41,01; 1177,51</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,85; 431,89</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>204,27; 1975,47</t>
+          <t>178,66; 2044,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,83; 134,25</t>
+          <t>-55,82; 145,52</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-84,4; 53,02</t>
+          <t>-85,56; 34,84</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>153,83; 745,14</t>
+          <t>152,87; 733,05</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-19,89; 173,94</t>
+          <t>-22,06; 167,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-64,79; 63,81</t>
+          <t>-67,33; 57,65</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>224,93; 736,76</t>
+          <t>230,83; 812,72</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,12; 2,55</t>
+          <t>-1,85; 2,62</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,34</t>
+          <t>-0,12; 5,09</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,38; 7,21</t>
+          <t>1,5; 7,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,35; 7,1</t>
+          <t>0,65; 7,17</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,06; 7,47</t>
+          <t>0,21; 7,37</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 6,95</t>
+          <t>-0,11; 6,9</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 4,23</t>
+          <t>-0,0; 4,11</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 5,53</t>
+          <t>0,79; 5,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,26</t>
+          <t>1,72; 6,21</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-69,46; 280,7</t>
+          <t>-66,67; 298,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-18,52; 471,08</t>
+          <t>-15,11; 484,34</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>25,73; 742,1</t>
+          <t>24,58; 725,96</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>3,15; 233,29</t>
+          <t>4,59; 244,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 255,26</t>
+          <t>-1,53; 251,79</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 243,29</t>
+          <t>0,03; 241,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-2,32; 187,25</t>
+          <t>-3,04; 181,4</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>15,37; 240,12</t>
+          <t>16,03; 226,13</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>37,1; 273,46</t>
+          <t>40,08; 270,72</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,45; 10,45</t>
+          <t>2,64; 10,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 2,0</t>
+          <t>-2,94; 2,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7,5; 15,8</t>
+          <t>7,52; 15,52</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 7,58</t>
+          <t>-1,46; 7,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,59; 2,57</t>
+          <t>-4,39; 2,8</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,41; 21,14</t>
+          <t>12,7; 21,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>1,52; 7,81</t>
+          <t>1,61; 7,96</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,34</t>
+          <t>-2,77; 1,65</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>11,71; 17,76</t>
+          <t>11,48; 17,84</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>39,71; 1586,76</t>
+          <t>39,73; 1611,24</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 401,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>168,44; 2620,86</t>
+          <t>179,85; 2835,03</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-29,12; 379,75</t>
+          <t>-34,82; 335,21</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-76,59; 126,42</t>
+          <t>-75,87; 156,24</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>159,26; 1047,82</t>
+          <t>174,05; 1083,54</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>25,71; 418,62</t>
+          <t>33,76; 430,21</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-72,02; 77,47</t>
+          <t>-66,94; 101,11</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>245,55; 1014,37</t>
+          <t>237,83; 937,84</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>0,55; 7,33</t>
+          <t>0,47; 7,13</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-1,16; 3,93</t>
+          <t>-1,06; 4,23</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>8,8; 16,08</t>
+          <t>8,53; 15,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 3,13</t>
+          <t>-3,7; 2,84</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 1,26</t>
+          <t>-4,93; 1,39</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,65; 15,99</t>
+          <t>7,66; 15,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 3,87</t>
+          <t>-0,64; 3,92</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 1,85</t>
+          <t>-2,23; 1,85</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>9,07; 14,47</t>
+          <t>9,2; 14,6</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 959,63</t>
+          <t>-10,67; 1042,57</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-47,79; 575,47</t>
+          <t>-46,53; 631,2</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>201,49; 1896,16</t>
+          <t>219,27; 1991,73</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-59,89; 146,35</t>
+          <t>-60,61; 132,87</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-83,12; 67,09</t>
+          <t>-81,71; 81,93</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>111,01; 617,63</t>
+          <t>114,4; 663,23</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 205,24</t>
+          <t>-20,28; 211,72</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-55,4; 93,25</t>
+          <t>-53,48; 103,77</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>200,2; 733,04</t>
+          <t>193,73; 757,86</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 2,6</t>
+          <t>-1,71; 2,5</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 2,82</t>
+          <t>-1,51; 2,81</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,33; 4,79</t>
+          <t>0,37; 4,7</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,72; 3,02</t>
+          <t>-1,69; 3,22</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 2,58</t>
+          <t>-1,94; 2,93</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 4,94</t>
+          <t>-1,96; 4,7</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,13; 2,18</t>
+          <t>-1,16; 2,23</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,01; 2,06</t>
+          <t>-1,05; 2,17</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 4,14</t>
+          <t>-0,26; 4,07</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-41,97; 117,33</t>
+          <t>-47,13; 119,6</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-34,5; 133,63</t>
+          <t>-37,45; 132,93</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>4,47; 224,45</t>
+          <t>1,72; 208,91</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 84,45</t>
+          <t>-30,22; 93,31</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-35,27; 70,79</t>
+          <t>-35,56; 87,26</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 126,58</t>
+          <t>-32,08; 116,3</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 70,91</t>
+          <t>-25,0; 69,95</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-22,31; 67,11</t>
+          <t>-23,64; 67,63</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-4,1; 128,27</t>
+          <t>-4,81; 121,71</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 1,3</t>
+          <t>-1,98; 1,45</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-2,06; 1,49</t>
+          <t>-2,12; 1,33</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-2,43; 1,5</t>
+          <t>-2,35; 1,47</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 3,51</t>
+          <t>0,0; 3,61</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 2,82</t>
+          <t>-0,75; 2,73</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 2,21</t>
+          <t>-0,46; 2,3</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 2,06</t>
+          <t>-0,55; 2,06</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-0,89; 1,69</t>
+          <t>-0,95; 1,46</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 1,4</t>
+          <t>-1,22; 1,38</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 58,39</t>
+          <t>-54,62; 68,62</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-53,68; 74,16</t>
+          <t>-56,17; 66,85</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-62,74; 59,37</t>
+          <t>-63,94; 63,89</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 228,42</t>
+          <t>-3,89; 243,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-20,48; 184,07</t>
+          <t>-24,18; 177,96</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-24,78; 143,4</t>
+          <t>-15,72; 165,86</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-17,11; 98,16</t>
+          <t>-19,49; 95,53</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-28,66; 86,79</t>
+          <t>-29,49; 71,41</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>-38,34; 66,85</t>
+          <t>-38,79; 62,09</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>0,56; 2,32</t>
+          <t>0,61; 2,47</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,09</t>
+          <t>-0,53; 1,15</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>1,79; 4,37</t>
+          <t>2,04; 4,48</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>0,73; 2,76</t>
+          <t>0,73; 2,78</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 1,36</t>
+          <t>-0,45; 1,39</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>2,73; 5,27</t>
+          <t>2,66; 5,28</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>0,93; 2,31</t>
+          <t>0,96; 2,27</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,99</t>
+          <t>-0,21; 1,05</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>2,77; 4,61</t>
+          <t>2,84; 4,64</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>18,95; 101,56</t>
+          <t>21,4; 109,54</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-18,65; 47,66</t>
+          <t>-16,99; 47,88</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>62,3; 189,57</t>
+          <t>69,24; 203,3</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>16,06; 87,5</t>
+          <t>17,56; 86,16</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-13,82; 42,96</t>
+          <t>-11,37; 43,52</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>72,56; 170,0</t>
+          <t>69,34; 164,69</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>26,45; 81,36</t>
+          <t>29,56; 81,8</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>-7,89; 34,46</t>
+          <t>-5,81; 37,34</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>83,61; 160,27</t>
+          <t>87,23; 167,78</t>
         </is>
       </c>
     </row>
